--- a/GATEWAY/S1#111ONIT0000000/OnitGroup/SIAVr/4/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/S1#111ONIT0000000/OnitGroup/SIAVr/4/accreditamento-checklist_V8.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIAVr\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15902958-C7D2-43F3-BAC6-DB2BE43FC06D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056129B6-7FFA-4074-B351-EB6D6CA92835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4527,9 +4527,6 @@
     <t>Applicativo non da la possibilità di omettere la parte narrativa</t>
   </si>
   <si>
-    <t>Viene segnalato l'errore</t>
-  </si>
-  <si>
     <t>Viene segnalato l'errore del mancato valore. Dopo che l'operatore ha sistemato il dato, effettua il reinvio.</t>
   </si>
   <si>
@@ -4717,6 +4714,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.101.4.4.9f606e8456d3ea7b6031d368985d55d5ddea2b44e96ec14dd1cc0475402105c7.2427d89f2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore del contenuto del messaggio. Dopo la modifica dei dati viene effettuato il reinvio</t>
   </si>
 </sst>
 </file>
@@ -5245,10 +5245,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
+      <sheetName val="Summary"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7635,10 +7641,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="K296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I289" sqref="I289"/>
+      <selection pane="bottomRight" activeCell="P297" sqref="P297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -14338,13 +14344,13 @@
         <v>45014</v>
       </c>
       <c r="G199" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="H199" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="I199" s="24" t="s">
         <v>892</v>
-      </c>
-      <c r="H199" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="I199" s="24" t="s">
-        <v>893</v>
       </c>
       <c r="J199" s="25" t="s">
         <v>489</v>
@@ -14382,13 +14388,13 @@
         <v>45014</v>
       </c>
       <c r="G200" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="H200" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="I200" s="24" t="s">
         <v>895</v>
-      </c>
-      <c r="H200" s="24" t="s">
-        <v>894</v>
-      </c>
-      <c r="I200" s="24" t="s">
-        <v>896</v>
       </c>
       <c r="J200" s="25" t="s">
         <v>489</v>
@@ -14426,13 +14432,13 @@
         <v>45014</v>
       </c>
       <c r="G201" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="H201" s="47" t="s">
+        <v>896</v>
+      </c>
+      <c r="I201" s="24" t="s">
         <v>898</v>
-      </c>
-      <c r="H201" s="47" t="s">
-        <v>897</v>
-      </c>
-      <c r="I201" s="24" t="s">
-        <v>899</v>
       </c>
       <c r="J201" s="25" t="s">
         <v>489</v>
@@ -14470,13 +14476,13 @@
         <v>45014</v>
       </c>
       <c r="G202" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="H202" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="I202" s="24" t="s">
         <v>901</v>
-      </c>
-      <c r="H202" s="24" t="s">
-        <v>900</v>
-      </c>
-      <c r="I202" s="24" t="s">
-        <v>902</v>
       </c>
       <c r="J202" s="25" t="s">
         <v>489</v>
@@ -14494,7 +14500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="129.6" hidden="1">
+    <row r="203" spans="1:20" ht="129.6">
       <c r="A203" s="20">
         <v>20</v>
       </c>
@@ -14514,13 +14520,13 @@
         <v>45014</v>
       </c>
       <c r="G203" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="H203" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="I203" s="24" t="s">
         <v>860</v>
-      </c>
-      <c r="H203" s="24" t="s">
-        <v>859</v>
-      </c>
-      <c r="I203" s="24" t="s">
-        <v>861</v>
       </c>
       <c r="J203" s="45" t="s">
         <v>489</v>
@@ -14538,7 +14544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="129.6" hidden="1">
+    <row r="204" spans="1:20" ht="129.6">
       <c r="A204" s="20">
         <v>21</v>
       </c>
@@ -14558,13 +14564,13 @@
         <v>45014</v>
       </c>
       <c r="G204" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="H204" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="I204" s="24" t="s">
         <v>863</v>
-      </c>
-      <c r="H204" s="24" t="s">
-        <v>862</v>
-      </c>
-      <c r="I204" s="24" t="s">
-        <v>864</v>
       </c>
       <c r="J204" s="45" t="s">
         <v>489</v>
@@ -14582,7 +14588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="129.6" hidden="1">
+    <row r="205" spans="1:20" ht="129.6">
       <c r="A205" s="20">
         <v>22</v>
       </c>
@@ -14602,13 +14608,13 @@
         <v>45014</v>
       </c>
       <c r="G205" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="H205" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="I205" s="24" t="s">
         <v>866</v>
-      </c>
-      <c r="H205" s="24" t="s">
-        <v>865</v>
-      </c>
-      <c r="I205" s="24" t="s">
-        <v>867</v>
       </c>
       <c r="J205" s="45" t="s">
         <v>489</v>
@@ -14626,7 +14632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="129.6" hidden="1">
+    <row r="206" spans="1:20" ht="129.6">
       <c r="A206" s="20">
         <v>23</v>
       </c>
@@ -14646,13 +14652,13 @@
         <v>45014</v>
       </c>
       <c r="G206" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="H206" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="I206" s="24" t="s">
         <v>869</v>
-      </c>
-      <c r="H206" s="24" t="s">
-        <v>868</v>
-      </c>
-      <c r="I206" s="24" t="s">
-        <v>870</v>
       </c>
       <c r="J206" s="45" t="s">
         <v>489</v>
@@ -14996,13 +15002,13 @@
         <v>45014</v>
       </c>
       <c r="G216" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I216" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J216" s="45" t="s">
         <v>489</v>
@@ -15028,7 +15034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="129.6" hidden="1">
+    <row r="217" spans="1:20" ht="129.6">
       <c r="A217" s="20">
         <v>34</v>
       </c>
@@ -15048,13 +15054,13 @@
         <v>45014</v>
       </c>
       <c r="G217" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="H217" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="I217" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="H217" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="I217" s="24" t="s">
-        <v>873</v>
       </c>
       <c r="J217" s="45" t="s">
         <v>489</v>
@@ -15304,13 +15310,13 @@
         <v>45014</v>
       </c>
       <c r="G224" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H224" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I224" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J224" s="45" t="s">
         <v>489</v>
@@ -15336,7 +15342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="144" hidden="1">
+    <row r="225" spans="1:20" ht="144">
       <c r="A225" s="20">
         <v>42</v>
       </c>
@@ -15356,13 +15362,13 @@
         <v>45014</v>
       </c>
       <c r="G225" s="24" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H225" s="24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I225" s="24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J225" s="45" t="s">
         <v>489</v>
@@ -15642,7 +15648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="115.2" hidden="1">
+    <row r="233" spans="1:20" ht="115.2">
       <c r="A233" s="20">
         <v>50</v>
       </c>
@@ -15658,9 +15664,7 @@
       <c r="E233" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="F233" s="23">
-        <v>45014</v>
-      </c>
+      <c r="F233" s="23"/>
       <c r="G233" s="24"/>
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
@@ -17282,13 +17286,13 @@
         <v>45014</v>
       </c>
       <c r="G280" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="H280" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>908</v>
-      </c>
-      <c r="H280" s="24" t="s">
-        <v>907</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>909</v>
       </c>
       <c r="J280" s="45" t="s">
         <v>489</v>
@@ -17486,13 +17490,13 @@
         <v>45014</v>
       </c>
       <c r="G285" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="H285" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="I285" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="H285" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="I285" s="24" t="s">
-        <v>912</v>
       </c>
       <c r="J285" s="45" t="s">
         <v>489</v>
@@ -17576,13 +17580,13 @@
         <v>45014</v>
       </c>
       <c r="G287" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="H287" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="I287" s="24" t="s">
         <v>914</v>
-      </c>
-      <c r="H287" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>915</v>
       </c>
       <c r="J287" s="45" t="s">
         <v>489</v>
@@ -17666,13 +17670,13 @@
         <v>45014</v>
       </c>
       <c r="G289" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="H289" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="I289" s="24" t="s">
         <v>917</v>
-      </c>
-      <c r="H289" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="I289" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="J289" s="45" t="s">
         <v>849</v>
@@ -17698,7 +17702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="115.2" hidden="1">
+    <row r="290" spans="1:20" ht="115.2">
       <c r="A290" s="20">
         <v>107</v>
       </c>
@@ -17736,7 +17740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="115.2" hidden="1">
+    <row r="291" spans="1:20" ht="115.2">
       <c r="A291" s="20">
         <v>108</v>
       </c>
@@ -17774,7 +17778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="115.2" hidden="1">
+    <row r="292" spans="1:20" ht="115.2">
       <c r="A292" s="20">
         <v>109</v>
       </c>
@@ -17812,7 +17816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="100.8" hidden="1">
+    <row r="293" spans="1:20" ht="100.8">
       <c r="A293" s="20">
         <v>110</v>
       </c>
@@ -17832,13 +17836,13 @@
         <v>45014</v>
       </c>
       <c r="G293" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="H293" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="I293" s="24" t="s">
         <v>877</v>
-      </c>
-      <c r="H293" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>878</v>
       </c>
       <c r="J293" s="45" t="s">
         <v>489</v>
@@ -17864,7 +17868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="115.2" hidden="1">
+    <row r="294" spans="1:20" ht="115.2">
       <c r="A294" s="20">
         <v>111</v>
       </c>
@@ -17902,7 +17906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="115.2" hidden="1">
+    <row r="295" spans="1:20" ht="115.2">
       <c r="A295" s="20">
         <v>112</v>
       </c>
@@ -17940,7 +17944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="115.2" hidden="1">
+    <row r="296" spans="1:20" ht="115.2">
       <c r="A296" s="20">
         <v>113</v>
       </c>
@@ -17978,7 +17982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="115.2" hidden="1">
+    <row r="297" spans="1:20" ht="115.2">
       <c r="A297" s="20">
         <v>114</v>
       </c>
@@ -17998,13 +18002,13 @@
         <v>45014</v>
       </c>
       <c r="G297" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="H297" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="I297" s="24" t="s">
         <v>880</v>
-      </c>
-      <c r="H297" s="24" t="s">
-        <v>879</v>
-      </c>
-      <c r="I297" s="24" t="s">
-        <v>881</v>
       </c>
       <c r="J297" s="45" t="s">
         <v>489</v>
@@ -18021,7 +18025,7 @@
         <v>489</v>
       </c>
       <c r="P297" s="45" t="s">
-        <v>855</v>
+        <v>918</v>
       </c>
       <c r="Q297" s="25"/>
       <c r="R297" s="26"/>
@@ -18030,7 +18034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="115.2" hidden="1">
+    <row r="298" spans="1:20" ht="115.2">
       <c r="A298" s="20">
         <v>115</v>
       </c>
@@ -18068,7 +18072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="115.2" hidden="1">
+    <row r="299" spans="1:20" ht="115.2">
       <c r="A299" s="20">
         <v>116</v>
       </c>
@@ -18088,13 +18092,13 @@
         <v>45014</v>
       </c>
       <c r="G299" s="24" t="s">
+        <v>882</v>
+      </c>
+      <c r="H299" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="I299" s="24" t="s">
         <v>883</v>
-      </c>
-      <c r="H299" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="I299" s="24" t="s">
-        <v>884</v>
       </c>
       <c r="J299" s="45" t="s">
         <v>489</v>
@@ -18111,7 +18115,7 @@
         <v>489</v>
       </c>
       <c r="P299" s="45" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q299" s="25"/>
       <c r="R299" s="26"/>
@@ -18120,7 +18124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="115.2" hidden="1">
+    <row r="300" spans="1:20" ht="115.2">
       <c r="A300" s="20">
         <v>117</v>
       </c>
@@ -18158,7 +18162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="115.2" hidden="1">
+    <row r="301" spans="1:20" ht="115.2">
       <c r="A301" s="20">
         <v>118</v>
       </c>
@@ -18178,13 +18182,13 @@
         <v>45014</v>
       </c>
       <c r="G301" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="H301" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="I301" s="24" t="s">
         <v>886</v>
-      </c>
-      <c r="H301" s="24" t="s">
-        <v>885</v>
-      </c>
-      <c r="I301" s="24" t="s">
-        <v>887</v>
       </c>
       <c r="J301" s="45" t="s">
         <v>489</v>
@@ -18201,7 +18205,7 @@
         <v>489</v>
       </c>
       <c r="P301" s="45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q301" s="25"/>
       <c r="R301" s="26"/>
@@ -18210,7 +18214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="115.2" hidden="1">
+    <row r="302" spans="1:20" ht="115.2">
       <c r="A302" s="20">
         <v>119</v>
       </c>
@@ -18248,7 +18252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="115.2" hidden="1">
+    <row r="303" spans="1:20" ht="115.2">
       <c r="A303" s="20">
         <v>120</v>
       </c>
@@ -18272,7 +18276,7 @@
         <v>829</v>
       </c>
       <c r="K303" s="45" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L303" s="25"/>
       <c r="M303" s="25"/>
@@ -18286,7 +18290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="115.2" hidden="1">
+    <row r="304" spans="1:20" ht="115.2">
       <c r="A304" s="20">
         <v>121</v>
       </c>
@@ -18306,13 +18310,13 @@
         <v>45014</v>
       </c>
       <c r="G304" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="H304" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="I304" s="24" t="s">
         <v>889</v>
-      </c>
-      <c r="H304" s="24" t="s">
-        <v>888</v>
-      </c>
-      <c r="I304" s="24" t="s">
-        <v>890</v>
       </c>
       <c r="J304" s="45" t="s">
         <v>489</v>
@@ -18329,7 +18333,7 @@
         <v>489</v>
       </c>
       <c r="P304" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q304" s="25"/>
       <c r="R304" s="26"/>
@@ -30324,6 +30328,7 @@
     <filterColumn colId="2">
       <filters>
         <filter val="CERT_VAC"/>
+        <filter val="SING_VAC"/>
       </filters>
     </filterColumn>
     <sortState ref="A9:T374">
@@ -30359,13 +30364,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DD48FDA-9581-4669-97F2-A3A62E091A50}">
           <x14:formula1>
-            <xm:f>'[accreditamento-checklist_V4.2.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>'C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\[accreditamento-checklist_V4.2.xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>O216:O217 L216:M217 O224:O225 L224:M225 O232:O233 L232:M233 O280 L280:M280 O285 L285:M285 O287 L287:M287 O289 L289:M289 O293 L293:M293 O297 L297:M297 O299 L299:M299 O301 L301:M301 O304 L304:M304</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{3C8FC23F-F9FC-4460-86D0-267382AC1594}">
           <x14:formula1>
-            <xm:f>'[accreditamento-checklist_V4.2.xlsx]Sheet1'!#REF!</xm:f>
+            <xm:f>'C:\work\FSE 2.0\it-fse-accreditamento-main\GATEWAY\S1#111ONIT0000000\OnitGroup\SIRVa\V.4.42.0.0\[accreditamento-checklist_V4.2.xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J216:J217 J224:J225 J232:J233 J277:J282 J284:J304 J203:J206</xm:sqref>
         </x14:dataValidation>
